--- a/Sensoruebersicht.xlsx
+++ b/Sensoruebersicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\workspace\eb-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB88B28-642C-494E-9058-0B8AB0476F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F106B-71D4-45E2-AD7E-DDA4F41EDA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7630" yWindow="1260" windowWidth="28800" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leichtbeton (LB)" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Mauerwerk (MW)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leichtbeton (LB)'!$A$25:$J$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Leichtbeton (LB)'!$A$25:$J$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Massivholz (MH)'!$A$25:$J$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Mauerwerk (MW)'!$A$25:$J$25</definedName>
   </definedNames>
@@ -2782,6 +2782,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2793,21 +2806,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2816,7 +2816,38 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3097,8 +3128,8 @@
   </sheetPr>
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3125,22 +3156,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
@@ -3174,10 +3205,10 @@
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -3661,22 +3692,22 @@
       <c r="N19" s="37"/>
     </row>
     <row r="22" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3718,13 +3749,13 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="64"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="58" t="s">
         <v>130</v>
       </c>
@@ -3746,9 +3777,9 @@
       <c r="J26"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="58" t="s">
         <v>135</v>
       </c>
@@ -3770,9 +3801,9 @@
       <c r="J27"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="58" t="s">
         <v>138</v>
       </c>
@@ -3794,9 +3825,9 @@
       <c r="J28"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="58" t="s">
         <v>141</v>
       </c>
@@ -3818,13 +3849,13 @@
       <c r="J29"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="64"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="58" t="s">
         <v>130</v>
       </c>
@@ -3846,9 +3877,9 @@
       <c r="J30"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="58" t="s">
         <v>135</v>
       </c>
@@ -3870,9 +3901,9 @@
       <c r="J31" s="56"/>
     </row>
     <row r="32" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="58" t="s">
         <v>138</v>
       </c>
@@ -3894,13 +3925,13 @@
       <c r="J32"/>
     </row>
     <row r="33" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="64"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="58" t="s">
         <v>130</v>
       </c>
@@ -3922,9 +3953,9 @@
       <c r="J33"/>
     </row>
     <row r="34" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="58" t="s">
         <v>135</v>
       </c>
@@ -3946,9 +3977,9 @@
       <c r="J34"/>
     </row>
     <row r="35" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="58" t="s">
         <v>138</v>
       </c>
@@ -3970,13 +4001,13 @@
       <c r="J35"/>
     </row>
     <row r="36" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="62" t="s">
         <v>163</v>
       </c>
       <c r="D36" s="58" t="s">
@@ -4000,9 +4031,9 @@
       <c r="J36"/>
     </row>
     <row r="37" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="58" t="s">
         <v>135</v>
       </c>
@@ -4024,9 +4055,9 @@
       <c r="J37"/>
     </row>
     <row r="38" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="58" t="s">
         <v>170</v>
       </c>
@@ -4048,9 +4079,9 @@
       <c r="J38"/>
     </row>
     <row r="39" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="58" t="s">
         <v>138</v>
       </c>
@@ -4072,9 +4103,9 @@
       <c r="J39"/>
     </row>
     <row r="40" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="58" t="s">
         <v>141</v>
       </c>
@@ -4124,13 +4155,13 @@
       <c r="J41"/>
     </row>
     <row r="42" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="64"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="58" t="s">
         <v>130</v>
       </c>
@@ -4152,9 +4183,9 @@
       <c r="J42"/>
     </row>
     <row r="43" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="58" t="s">
         <v>135</v>
       </c>
@@ -4204,13 +4235,13 @@
       <c r="J44"/>
     </row>
     <row r="45" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="C45" s="64"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="58" t="s">
         <v>130</v>
       </c>
@@ -4232,9 +4263,9 @@
       <c r="J45"/>
     </row>
     <row r="46" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="58" t="s">
         <v>138</v>
       </c>
@@ -4368,13 +4399,13 @@
       <c r="J50"/>
     </row>
     <row r="51" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="C51" s="64"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="58" t="s">
         <v>130</v>
       </c>
@@ -4396,9 +4427,9 @@
       <c r="J51"/>
     </row>
     <row r="52" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="58" t="s">
         <v>135</v>
       </c>
@@ -4420,9 +4451,9 @@
       <c r="J52"/>
     </row>
     <row r="53" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="58" t="s">
         <v>170</v>
       </c>
@@ -4444,9 +4475,9 @@
       <c r="J53"/>
     </row>
     <row r="54" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="58" t="s">
         <v>138</v>
       </c>
@@ -4468,13 +4499,13 @@
       <c r="J54"/>
     </row>
     <row r="55" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="64" t="s">
+      <c r="A55" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="C55" s="64"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="58" t="s">
         <v>130</v>
       </c>
@@ -4496,9 +4527,9 @@
       <c r="J55"/>
     </row>
     <row r="56" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="58" t="s">
         <v>135</v>
       </c>
@@ -4520,9 +4551,9 @@
       <c r="J56"/>
     </row>
     <row r="57" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="65"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="58" t="s">
         <v>138</v>
       </c>
@@ -4544,9 +4575,9 @@
       <c r="J57"/>
     </row>
     <row r="58" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="65"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="58" t="s">
         <v>141</v>
       </c>
@@ -4624,13 +4655,13 @@
       <c r="J60"/>
     </row>
     <row r="61" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="64" t="s">
+      <c r="A61" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="C61" s="64"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="58" t="s">
         <v>130</v>
       </c>
@@ -4652,9 +4683,9 @@
       <c r="J61"/>
     </row>
     <row r="62" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="65"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
       <c r="D62" s="58" t="s">
         <v>135</v>
       </c>
@@ -4676,9 +4707,9 @@
       <c r="J62"/>
     </row>
     <row r="63" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
       <c r="D63" s="58" t="s">
         <v>138</v>
       </c>
@@ -4700,9 +4731,9 @@
       <c r="J63"/>
     </row>
     <row r="64" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="65"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
       <c r="D64" s="58" t="s">
         <v>141</v>
       </c>
@@ -4724,13 +4755,13 @@
       <c r="J64"/>
     </row>
     <row r="65" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="64" t="s">
+      <c r="A65" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="C65" s="64"/>
+      <c r="C65" s="62"/>
       <c r="D65" s="58" t="s">
         <v>130</v>
       </c>
@@ -4754,9 +4785,9 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="65"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="58" t="s">
         <v>135</v>
       </c>
@@ -4780,9 +4811,9 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="65"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
       <c r="D67" s="58" t="s">
         <v>138</v>
       </c>
@@ -4806,9 +4837,9 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
       <c r="D68" s="58" t="s">
         <v>141</v>
       </c>
@@ -4832,13 +4863,13 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="64"/>
+      <c r="C69" s="62"/>
       <c r="D69" s="58" t="s">
         <v>130</v>
       </c>
@@ -4862,9 +4893,9 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="65"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63"/>
       <c r="D70" s="58" t="s">
         <v>135</v>
       </c>
@@ -4888,9 +4919,9 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="65"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
       <c r="D71" s="58" t="s">
         <v>138</v>
       </c>
@@ -4912,9 +4943,9 @@
       <c r="J71"/>
     </row>
     <row r="72" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
       <c r="D72" s="58" t="s">
         <v>141</v>
       </c>
@@ -4936,13 +4967,13 @@
       <c r="J72"/>
     </row>
     <row r="73" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="64" t="s">
+      <c r="A73" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="B73" s="64" t="s">
+      <c r="B73" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="C73" s="64"/>
+      <c r="C73" s="62"/>
       <c r="D73" s="58" t="s">
         <v>130</v>
       </c>
@@ -4964,9 +4995,9 @@
       <c r="J73"/>
     </row>
     <row r="74" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="65"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
+      <c r="A74" s="63"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="63"/>
       <c r="D74" s="58" t="s">
         <v>135</v>
       </c>
@@ -4988,13 +5019,13 @@
       <c r="J74"/>
     </row>
     <row r="75" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="64" t="s">
+      <c r="A75" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="B75" s="64" t="s">
+      <c r="B75" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="C75" s="64"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="58" t="s">
         <v>130</v>
       </c>
@@ -5016,9 +5047,9 @@
       <c r="J75"/>
     </row>
     <row r="76" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="65"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
       <c r="D76" s="58" t="s">
         <v>135</v>
       </c>
@@ -5040,9 +5071,9 @@
       <c r="J76"/>
     </row>
     <row r="77" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="65"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
+      <c r="A77" s="63"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
       <c r="D77" s="58" t="s">
         <v>138</v>
       </c>
@@ -5064,13 +5095,13 @@
       <c r="J77"/>
     </row>
     <row r="78" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="64" t="s">
+      <c r="A78" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="B78" s="64" t="s">
+      <c r="B78" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="C78" s="64"/>
+      <c r="C78" s="62"/>
       <c r="D78" s="58" t="s">
         <v>130</v>
       </c>
@@ -5092,9 +5123,9 @@
       <c r="J78"/>
     </row>
     <row r="79" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="65"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
+      <c r="A79" s="63"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
       <c r="D79" s="58" t="s">
         <v>135</v>
       </c>
@@ -5116,9 +5147,9 @@
       <c r="J79"/>
     </row>
     <row r="80" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="65"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
+      <c r="A80" s="63"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
       <c r="D80" s="58" t="s">
         <v>138</v>
       </c>
@@ -5140,13 +5171,13 @@
       <c r="J80"/>
     </row>
     <row r="81" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="64" t="s">
+      <c r="A81" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="B81" s="64" t="s">
+      <c r="B81" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="C81" s="64"/>
+      <c r="C81" s="62"/>
       <c r="D81" s="58" t="s">
         <v>130</v>
       </c>
@@ -5168,9 +5199,9 @@
       <c r="J81"/>
     </row>
     <row r="82" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
       <c r="D82" s="58" t="s">
         <v>135</v>
       </c>
@@ -5192,9 +5223,9 @@
       <c r="J82"/>
     </row>
     <row r="83" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="65"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
       <c r="D83" s="58" t="s">
         <v>138</v>
       </c>
@@ -5216,9 +5247,9 @@
       <c r="J83"/>
     </row>
     <row r="84" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
+      <c r="A84" s="63"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
       <c r="D84" s="58" t="s">
         <v>141</v>
       </c>
@@ -5240,13 +5271,13 @@
       <c r="J84"/>
     </row>
     <row r="85" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="64" t="s">
+      <c r="A85" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="B85" s="64" t="s">
+      <c r="B85" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="C85" s="64"/>
+      <c r="C85" s="62"/>
       <c r="D85" s="58" t="s">
         <v>130</v>
       </c>
@@ -5268,9 +5299,9 @@
       <c r="J85"/>
     </row>
     <row r="86" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="65"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
+      <c r="A86" s="63"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
       <c r="D86" s="58" t="s">
         <v>135</v>
       </c>
@@ -5292,13 +5323,13 @@
       <c r="J86"/>
     </row>
     <row r="87" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="64" t="s">
+      <c r="A87" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="B87" s="64" t="s">
+      <c r="B87" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="C87" s="64"/>
+      <c r="C87" s="62"/>
       <c r="D87" s="58" t="s">
         <v>130</v>
       </c>
@@ -5320,9 +5351,9 @@
       <c r="J87"/>
     </row>
     <row r="88" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="65"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
+      <c r="A88" s="63"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
       <c r="D88" s="58" t="s">
         <v>135</v>
       </c>
@@ -5344,9 +5375,9 @@
       <c r="J88"/>
     </row>
     <row r="89" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="65"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="63"/>
       <c r="D89" s="58" t="s">
         <v>138</v>
       </c>
@@ -5368,13 +5399,13 @@
       <c r="J89"/>
     </row>
     <row r="90" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="64" t="s">
+      <c r="A90" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="B90" s="64" t="s">
+      <c r="B90" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="C90" s="64"/>
+      <c r="C90" s="62"/>
       <c r="D90" s="58" t="s">
         <v>130</v>
       </c>
@@ -5396,9 +5427,9 @@
       <c r="J90"/>
     </row>
     <row r="91" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="65"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
+      <c r="A91" s="63"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="63"/>
       <c r="D91" s="58" t="s">
         <v>135</v>
       </c>
@@ -5448,13 +5479,13 @@
       <c r="J92"/>
     </row>
     <row r="93" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="64" t="s">
+      <c r="A93" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="B93" s="64" t="s">
+      <c r="B93" s="62" t="s">
         <v>339</v>
       </c>
-      <c r="C93" s="64"/>
+      <c r="C93" s="62"/>
       <c r="D93" s="58" t="s">
         <v>130</v>
       </c>
@@ -5476,9 +5507,9 @@
       <c r="J93"/>
     </row>
     <row r="94" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="63"/>
       <c r="D94" s="58" t="s">
         <v>135</v>
       </c>
@@ -5500,9 +5531,9 @@
       <c r="J94"/>
     </row>
     <row r="95" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="65"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
+      <c r="A95" s="63"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="63"/>
       <c r="D95" s="58" t="s">
         <v>138</v>
       </c>
@@ -5524,9 +5555,9 @@
       <c r="J95"/>
     </row>
     <row r="96" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="65"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
+      <c r="A96" s="63"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="63"/>
       <c r="D96" s="58" t="s">
         <v>141</v>
       </c>
@@ -5548,13 +5579,13 @@
       <c r="J96"/>
     </row>
     <row r="97" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="64" t="s">
+      <c r="A97" s="62" t="s">
         <v>348</v>
       </c>
-      <c r="B97" s="64" t="s">
+      <c r="B97" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="C97" s="64"/>
+      <c r="C97" s="62"/>
       <c r="D97" s="58" t="s">
         <v>135</v>
       </c>
@@ -5576,9 +5607,9 @@
       <c r="J97"/>
     </row>
     <row r="98" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="65"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
+      <c r="A98" s="63"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="63"/>
       <c r="D98" s="58" t="s">
         <v>138</v>
       </c>
@@ -5740,13 +5771,13 @@
       <c r="J103"/>
     </row>
     <row r="104" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="64" t="s">
+      <c r="A104" s="62" t="s">
         <v>374</v>
       </c>
-      <c r="B104" s="64" t="s">
+      <c r="B104" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="C104" s="64"/>
+      <c r="C104" s="62"/>
       <c r="D104" s="58" t="s">
         <v>130</v>
       </c>
@@ -5768,9 +5799,9 @@
       <c r="J104"/>
     </row>
     <row r="105" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="65"/>
-      <c r="B105" s="65"/>
-      <c r="C105" s="65"/>
+      <c r="A105" s="63"/>
+      <c r="B105" s="63"/>
+      <c r="C105" s="63"/>
       <c r="D105" s="58" t="s">
         <v>135</v>
       </c>
@@ -5792,9 +5823,9 @@
       <c r="J105"/>
     </row>
     <row r="106" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="65"/>
-      <c r="B106" s="65"/>
-      <c r="C106" s="65"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="63"/>
       <c r="D106" s="58" t="s">
         <v>138</v>
       </c>
@@ -5844,17 +5875,49 @@
       <c r="J107"/>
     </row>
   </sheetData>
-  <autoFilter ref="A25:J25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A25:J107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="66">
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B89"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="B93:B96"/>
     <mergeCell ref="B97:B98"/>
@@ -5871,48 +5934,21 @@
     <mergeCell ref="C65:C68"/>
     <mergeCell ref="C69:C72"/>
     <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A22:N22"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C89"/>
   </mergeCells>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="offline">
+      <formula>NOT(ISERROR(SEARCH("offline",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="25" orientation="portrait"/>
 </worksheet>
@@ -5925,8 +5961,8 @@
   </sheetPr>
   <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:J25"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5953,22 +5989,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
@@ -6002,10 +6038,10 @@
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -6489,22 +6525,22 @@
       <c r="N19" s="37"/>
     </row>
     <row r="22" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="64" t="s">
         <v>386</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6514,217 +6550,217 @@
       <c r="P24" s="53"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="I25" s="66" t="s">
+      <c r="I25" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="J25" s="66" t="s">
+      <c r="J25" s="59" t="s">
         <v>127</v>
       </c>
       <c r="O25" s="53"/>
       <c r="P25" s="53"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="69" t="s">
         <v>387</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="60">
         <v>1</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="60" t="s">
         <v>390</v>
       </c>
-      <c r="H26" s="68" t="s">
+      <c r="H26" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I26" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" s="68"/>
+      <c r="I26" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="70"/>
       <c r="B27" s="70"/>
       <c r="C27" s="70"/>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="60">
         <v>2</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="60" t="s">
         <v>391</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="H27" s="68" t="s">
+      <c r="H27" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="J27" s="68"/>
+      <c r="I27" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="70"/>
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="68">
+      <c r="E28" s="60">
         <v>3</v>
       </c>
-      <c r="F28" s="68" t="s">
+      <c r="F28" s="60" t="s">
         <v>393</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="60" t="s">
         <v>394</v>
       </c>
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="J28" s="68"/>
+      <c r="I28" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="70"/>
       <c r="B29" s="70"/>
       <c r="C29" s="70"/>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="60">
         <v>4</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="G29" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="H29" s="68" t="s">
+      <c r="H29" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I29" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="J29" s="68"/>
+      <c r="I29" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="J29" s="60"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66" t="s">
+      <c r="C30" s="59"/>
+      <c r="D30" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="60">
         <v>5</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="F30" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="G30" s="60" t="s">
         <v>398</v>
       </c>
-      <c r="H30" s="68" t="s">
+      <c r="H30" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="I30" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="J30" s="68"/>
+      <c r="I30" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="69" t="s">
         <v>399</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="66" t="s">
+      <c r="C31" s="69"/>
+      <c r="D31" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="60">
         <v>9</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="G31" s="68" t="s">
+      <c r="G31" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="H31" s="68" t="s">
+      <c r="H31" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="I31" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="J31" s="68"/>
+      <c r="I31" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="70"/>
       <c r="B32" s="70"/>
       <c r="C32" s="70"/>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="60">
         <v>10</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="F32" s="60" t="s">
         <v>402</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="60" t="s">
         <v>403</v>
       </c>
-      <c r="H32" s="68" t="s">
+      <c r="H32" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="I32" s="69" t="s">
+      <c r="I32" s="61" t="s">
         <v>134</v>
       </c>
       <c r="J32" s="56"/>
@@ -6733,673 +6769,673 @@
       <c r="A33" s="70"/>
       <c r="B33" s="70"/>
       <c r="C33" s="70"/>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="60">
         <v>11</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="60" t="s">
         <v>404</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="H33" s="68" t="s">
+      <c r="H33" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J33" s="68"/>
+      <c r="I33" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J33" s="60"/>
     </row>
     <row r="34" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="69" t="s">
         <v>406</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="66" t="s">
+      <c r="C34" s="69"/>
+      <c r="D34" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="60">
         <v>13</v>
       </c>
-      <c r="F34" s="68" t="s">
+      <c r="F34" s="60" t="s">
         <v>407</v>
       </c>
-      <c r="G34" s="68" t="s">
+      <c r="G34" s="60" t="s">
         <v>408</v>
       </c>
-      <c r="H34" s="68" t="s">
+      <c r="H34" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="I34" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J34" s="68"/>
+      <c r="I34" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="70"/>
       <c r="B35" s="70"/>
       <c r="C35" s="70"/>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="60">
         <v>14</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F35" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="G35" s="68" t="s">
+      <c r="G35" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="H35" s="68" t="s">
+      <c r="H35" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="I35" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J35" s="68"/>
+      <c r="I35" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" s="60"/>
     </row>
     <row r="36" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="70"/>
       <c r="B36" s="70"/>
       <c r="C36" s="70"/>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="E36" s="68" t="s">
+      <c r="E36" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="68" t="s">
+      <c r="F36" s="60" t="s">
         <v>410</v>
       </c>
-      <c r="G36" s="68" t="s">
+      <c r="G36" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="H36" s="68" t="s">
+      <c r="H36" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I36" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J36" s="68"/>
+      <c r="I36" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J36" s="60"/>
     </row>
     <row r="37" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="70"/>
       <c r="B37" s="70"/>
       <c r="C37" s="70"/>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E37" s="68">
+      <c r="E37" s="60">
         <v>15</v>
       </c>
-      <c r="F37" s="68" t="s">
+      <c r="F37" s="60" t="s">
         <v>412</v>
       </c>
-      <c r="G37" s="68" t="s">
+      <c r="G37" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="H37" s="68" t="s">
+      <c r="H37" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I37" s="68" t="s">
+      <c r="I37" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="J37" s="68"/>
+      <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="70"/>
       <c r="B38" s="70"/>
       <c r="C38" s="70"/>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="60">
         <v>16</v>
       </c>
-      <c r="F38" s="68" t="s">
+      <c r="F38" s="60" t="s">
         <v>412</v>
       </c>
-      <c r="G38" s="68" t="s">
+      <c r="G38" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="H38" s="68" t="s">
+      <c r="H38" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I38" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J38" s="68"/>
+      <c r="I38" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J38" s="60"/>
     </row>
     <row r="39" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="69" t="s">
         <v>414</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="66" t="s">
+      <c r="C39" s="69"/>
+      <c r="D39" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="68">
+      <c r="E39" s="60">
         <v>17</v>
       </c>
-      <c r="F39" s="68" t="s">
+      <c r="F39" s="60" t="s">
         <v>415</v>
       </c>
-      <c r="G39" s="68" t="s">
+      <c r="G39" s="60" t="s">
         <v>416</v>
       </c>
-      <c r="H39" s="68" t="s">
+      <c r="H39" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="I39" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J39" s="68"/>
+      <c r="I39" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J39" s="60"/>
     </row>
     <row r="40" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="70"/>
       <c r="B40" s="70"/>
       <c r="C40" s="70"/>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="68">
+      <c r="E40" s="60">
         <v>18</v>
       </c>
-      <c r="F40" s="68" t="s">
+      <c r="F40" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="G40" s="68" t="s">
+      <c r="G40" s="60" t="s">
         <v>418</v>
       </c>
-      <c r="H40" s="68" t="s">
+      <c r="H40" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J40" s="68"/>
+      <c r="I40" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J40" s="60"/>
     </row>
     <row r="41" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="59" t="s">
         <v>419</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66" t="s">
+      <c r="C41" s="59"/>
+      <c r="D41" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="68">
+      <c r="E41" s="60">
         <v>21</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="60" t="s">
         <v>420</v>
       </c>
-      <c r="G41" s="68" t="s">
+      <c r="G41" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="H41" s="68" t="s">
+      <c r="H41" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I41" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J41" s="68"/>
+      <c r="I41" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J41" s="60"/>
     </row>
     <row r="42" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="69" t="s">
         <v>422</v>
       </c>
-      <c r="C42" s="67"/>
-      <c r="D42" s="66" t="s">
+      <c r="C42" s="69"/>
+      <c r="D42" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="68">
+      <c r="E42" s="60">
         <v>25</v>
       </c>
-      <c r="F42" s="68" t="s">
+      <c r="F42" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="G42" s="68" t="s">
+      <c r="G42" s="60" t="s">
         <v>423</v>
       </c>
-      <c r="H42" s="68" t="s">
+      <c r="H42" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="I42" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J42" s="68"/>
+      <c r="I42" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J42" s="60"/>
     </row>
     <row r="43" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="70"/>
       <c r="B43" s="70"/>
       <c r="C43" s="70"/>
-      <c r="D43" s="66" t="s">
+      <c r="D43" s="59" t="s">
         <v>424</v>
       </c>
-      <c r="E43" s="68" t="s">
+      <c r="E43" s="60" t="s">
         <v>425</v>
       </c>
-      <c r="F43" s="68" t="s">
+      <c r="F43" s="60" t="s">
         <v>426</v>
       </c>
-      <c r="G43" s="68" t="s">
+      <c r="G43" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="H43" s="68" t="s">
+      <c r="H43" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I43" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J43" s="68"/>
+      <c r="I43" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J43" s="60"/>
     </row>
     <row r="44" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="70"/>
       <c r="B44" s="70"/>
       <c r="C44" s="70"/>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E44" s="68">
+      <c r="E44" s="60">
         <v>26</v>
       </c>
-      <c r="F44" s="68" t="s">
+      <c r="F44" s="60" t="s">
         <v>428</v>
       </c>
-      <c r="G44" s="68" t="s">
+      <c r="G44" s="60" t="s">
         <v>429</v>
       </c>
-      <c r="H44" s="68" t="s">
+      <c r="H44" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="I44" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J44" s="68"/>
+      <c r="I44" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="59" t="s">
         <v>430</v>
       </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66" t="s">
+      <c r="C45" s="59"/>
+      <c r="D45" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="68">
+      <c r="E45" s="60">
         <v>29</v>
       </c>
-      <c r="F45" s="68" t="s">
+      <c r="F45" s="60" t="s">
         <v>431</v>
       </c>
-      <c r="G45" s="68" t="s">
+      <c r="G45" s="60" t="s">
         <v>432</v>
       </c>
-      <c r="H45" s="68" t="s">
+      <c r="H45" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="I45" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J45" s="68"/>
+      <c r="I45" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J45" s="60"/>
     </row>
     <row r="46" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="67" t="s">
+      <c r="A46" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="69" t="s">
         <v>433</v>
       </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="66" t="s">
+      <c r="C46" s="69"/>
+      <c r="D46" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="68">
+      <c r="E46" s="60">
         <v>33</v>
       </c>
-      <c r="F46" s="68" t="s">
+      <c r="F46" s="60" t="s">
         <v>434</v>
       </c>
-      <c r="G46" s="68" t="s">
+      <c r="G46" s="60" t="s">
         <v>435</v>
       </c>
-      <c r="H46" s="68" t="s">
+      <c r="H46" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J46" s="68"/>
+      <c r="I46" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J46" s="60"/>
     </row>
     <row r="47" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="70"/>
       <c r="B47" s="70"/>
       <c r="C47" s="70"/>
-      <c r="D47" s="66" t="s">
+      <c r="D47" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="68">
+      <c r="E47" s="60">
         <v>34</v>
       </c>
-      <c r="F47" s="68" t="s">
+      <c r="F47" s="60" t="s">
         <v>436</v>
       </c>
-      <c r="G47" s="68" t="s">
+      <c r="G47" s="60" t="s">
         <v>437</v>
       </c>
-      <c r="H47" s="68" t="s">
+      <c r="H47" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="I47" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J47" s="68"/>
+      <c r="I47" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J47" s="60"/>
     </row>
     <row r="48" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="69" t="s">
         <v>438</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="66" t="s">
+      <c r="C48" s="69"/>
+      <c r="D48" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="68">
+      <c r="E48" s="60">
         <v>37</v>
       </c>
-      <c r="F48" s="68" t="s">
+      <c r="F48" s="60" t="s">
         <v>439</v>
       </c>
-      <c r="G48" s="68" t="s">
+      <c r="G48" s="60" t="s">
         <v>440</v>
       </c>
-      <c r="H48" s="68" t="s">
+      <c r="H48" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I48" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J48" s="68"/>
+      <c r="I48" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J48" s="60"/>
     </row>
     <row r="49" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="70"/>
       <c r="B49" s="70"/>
       <c r="C49" s="70"/>
-      <c r="D49" s="66" t="s">
+      <c r="D49" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="68">
+      <c r="E49" s="60">
         <v>38</v>
       </c>
-      <c r="F49" s="68" t="s">
+      <c r="F49" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G49" s="68" t="s">
+      <c r="G49" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="H49" s="68" t="s">
+      <c r="H49" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J49" s="68"/>
+      <c r="I49" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J49" s="60"/>
     </row>
     <row r="50" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="70"/>
       <c r="B50" s="70"/>
       <c r="C50" s="70"/>
-      <c r="D50" s="66" t="s">
+      <c r="D50" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E50" s="68">
+      <c r="E50" s="60">
         <v>39</v>
       </c>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="60" t="s">
         <v>443</v>
       </c>
-      <c r="G50" s="68" t="s">
+      <c r="G50" s="60" t="s">
         <v>444</v>
       </c>
-      <c r="H50" s="68" t="s">
+      <c r="H50" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I50" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J50" s="68"/>
+      <c r="I50" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J50" s="60"/>
     </row>
     <row r="51" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="59" t="s">
         <v>445</v>
       </c>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66" t="s">
+      <c r="C51" s="59"/>
+      <c r="D51" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E51" s="68">
+      <c r="E51" s="60">
         <v>41</v>
       </c>
-      <c r="F51" s="68" t="s">
+      <c r="F51" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="G51" s="68" t="s">
+      <c r="G51" s="60" t="s">
         <v>447</v>
       </c>
-      <c r="H51" s="68" t="s">
+      <c r="H51" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I51" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J51" s="68"/>
+      <c r="I51" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J51" s="60"/>
     </row>
     <row r="52" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="B52" s="66" t="s">
+      <c r="B52" s="59" t="s">
         <v>448</v>
       </c>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66" t="s">
+      <c r="C52" s="59"/>
+      <c r="D52" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E52" s="68">
+      <c r="E52" s="60">
         <v>45</v>
       </c>
-      <c r="F52" s="68" t="s">
+      <c r="F52" s="60" t="s">
         <v>449</v>
       </c>
-      <c r="G52" s="68" t="s">
+      <c r="G52" s="60" t="s">
         <v>450</v>
       </c>
-      <c r="H52" s="68" t="s">
+      <c r="H52" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I52" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J52" s="68"/>
+      <c r="I52" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J52" s="60"/>
     </row>
     <row r="53" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="66" t="s">
+      <c r="A53" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="59" t="s">
         <v>451</v>
       </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66" t="s">
+      <c r="C53" s="59"/>
+      <c r="D53" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E53" s="68">
+      <c r="E53" s="60">
         <v>49</v>
       </c>
-      <c r="F53" s="68" t="s">
+      <c r="F53" s="60" t="s">
         <v>452</v>
       </c>
-      <c r="G53" s="68" t="s">
+      <c r="G53" s="60" t="s">
         <v>453</v>
       </c>
-      <c r="H53" s="68" t="s">
+      <c r="H53" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="I53" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J53" s="68"/>
+      <c r="I53" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J53" s="60"/>
     </row>
     <row r="54" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="67" t="s">
+      <c r="A54" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="69" t="s">
         <v>454</v>
       </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="66" t="s">
+      <c r="C54" s="69"/>
+      <c r="D54" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E54" s="68">
+      <c r="E54" s="60">
         <v>53</v>
       </c>
-      <c r="F54" s="68" t="s">
+      <c r="F54" s="60" t="s">
         <v>455</v>
       </c>
-      <c r="G54" s="68" t="s">
+      <c r="G54" s="60" t="s">
         <v>456</v>
       </c>
-      <c r="H54" s="68" t="s">
+      <c r="H54" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J54" s="68"/>
+      <c r="I54" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J54" s="60"/>
     </row>
     <row r="55" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="70"/>
       <c r="B55" s="70"/>
       <c r="C55" s="70"/>
-      <c r="D55" s="66" t="s">
+      <c r="D55" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="68">
+      <c r="E55" s="60">
         <v>54</v>
       </c>
-      <c r="F55" s="68" t="s">
+      <c r="F55" s="60" t="s">
         <v>457</v>
       </c>
-      <c r="G55" s="68" t="s">
+      <c r="G55" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="H55" s="68" t="s">
+      <c r="H55" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="I55" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J55" s="68"/>
+      <c r="I55" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J55" s="60"/>
     </row>
     <row r="56" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="70"/>
       <c r="B56" s="70"/>
       <c r="C56" s="70"/>
-      <c r="D56" s="66" t="s">
+      <c r="D56" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E56" s="68">
+      <c r="E56" s="60">
         <v>55</v>
       </c>
-      <c r="F56" s="68" t="s">
+      <c r="F56" s="60" t="s">
         <v>459</v>
       </c>
-      <c r="G56" s="68" t="s">
+      <c r="G56" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="H56" s="68" t="s">
+      <c r="H56" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I56" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J56" s="68"/>
+      <c r="I56" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J56" s="60"/>
     </row>
     <row r="57" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="70"/>
       <c r="B57" s="70"/>
       <c r="C57" s="70"/>
-      <c r="D57" s="66" t="s">
+      <c r="D57" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E57" s="68">
+      <c r="E57" s="60">
         <v>56</v>
       </c>
-      <c r="F57" s="68" t="s">
+      <c r="F57" s="60" t="s">
         <v>461</v>
       </c>
-      <c r="G57" s="68" t="s">
+      <c r="G57" s="60" t="s">
         <v>462</v>
       </c>
-      <c r="H57" s="68" t="s">
+      <c r="H57" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I57" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J57" s="68"/>
+      <c r="I57" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J57" s="60"/>
     </row>
     <row r="58" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="67" t="s">
+      <c r="A58" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="69" t="s">
         <v>463</v>
       </c>
-      <c r="C58" s="67"/>
-      <c r="D58" s="66" t="s">
+      <c r="C58" s="69"/>
+      <c r="D58" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="68">
+      <c r="E58" s="60">
         <v>57</v>
       </c>
-      <c r="F58" s="68" t="s">
+      <c r="F58" s="60" t="s">
         <v>464</v>
       </c>
-      <c r="G58" s="68" t="s">
+      <c r="G58" s="60" t="s">
         <v>465</v>
       </c>
-      <c r="H58" s="68" t="s">
+      <c r="H58" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="I58" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J58" s="68" t="s">
+      <c r="I58" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J58" s="60" t="s">
         <v>277</v>
       </c>
     </row>
@@ -7407,25 +7443,25 @@
       <c r="A59" s="70"/>
       <c r="B59" s="70"/>
       <c r="C59" s="70"/>
-      <c r="D59" s="66" t="s">
+      <c r="D59" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E59" s="68">
+      <c r="E59" s="60">
         <v>58</v>
       </c>
-      <c r="F59" s="68" t="s">
+      <c r="F59" s="60" t="s">
         <v>466</v>
       </c>
-      <c r="G59" s="68" t="s">
+      <c r="G59" s="60" t="s">
         <v>467</v>
       </c>
-      <c r="H59" s="68" t="s">
+      <c r="H59" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="I59" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J59" s="68" t="s">
+      <c r="I59" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J59" s="60" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7433,25 +7469,25 @@
       <c r="A60" s="70"/>
       <c r="B60" s="70"/>
       <c r="C60" s="70"/>
-      <c r="D60" s="66" t="s">
+      <c r="D60" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E60" s="68">
+      <c r="E60" s="60">
         <v>59</v>
       </c>
-      <c r="F60" s="68" t="s">
+      <c r="F60" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="G60" s="68" t="s">
+      <c r="G60" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="H60" s="68" t="s">
+      <c r="H60" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="I60" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J60" s="68" t="s">
+      <c r="I60" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J60" s="60" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7459,55 +7495,55 @@
       <c r="A61" s="70"/>
       <c r="B61" s="70"/>
       <c r="C61" s="70"/>
-      <c r="D61" s="66" t="s">
+      <c r="D61" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E61" s="68">
+      <c r="E61" s="60">
         <v>60</v>
       </c>
-      <c r="F61" s="68" t="s">
+      <c r="F61" s="60" t="s">
         <v>471</v>
       </c>
-      <c r="G61" s="68" t="s">
+      <c r="G61" s="60" t="s">
         <v>472</v>
       </c>
-      <c r="H61" s="68" t="s">
+      <c r="H61" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="I61" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J61" s="68" t="s">
+      <c r="I61" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J61" s="60" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="67" t="s">
+      <c r="A62" s="69" t="s">
         <v>270</v>
       </c>
-      <c r="B62" s="67" t="s">
+      <c r="B62" s="69" t="s">
         <v>473</v>
       </c>
-      <c r="C62" s="67"/>
-      <c r="D62" s="66" t="s">
+      <c r="C62" s="69"/>
+      <c r="D62" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="68">
+      <c r="E62" s="60">
         <v>61</v>
       </c>
-      <c r="F62" s="68" t="s">
+      <c r="F62" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="G62" s="68" t="s">
+      <c r="G62" s="60" t="s">
         <v>475</v>
       </c>
-      <c r="H62" s="68" t="s">
+      <c r="H62" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="I62" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J62" s="68" t="s">
+      <c r="I62" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J62" s="60" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7515,25 +7551,25 @@
       <c r="A63" s="70"/>
       <c r="B63" s="70"/>
       <c r="C63" s="70"/>
-      <c r="D63" s="66" t="s">
+      <c r="D63" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E63" s="68">
+      <c r="E63" s="60">
         <v>62</v>
       </c>
-      <c r="F63" s="68" t="s">
+      <c r="F63" s="60" t="s">
         <v>476</v>
       </c>
-      <c r="G63" s="68" t="s">
+      <c r="G63" s="60" t="s">
         <v>477</v>
       </c>
-      <c r="H63" s="68" t="s">
+      <c r="H63" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="I63" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J63" s="68" t="s">
+      <c r="I63" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J63" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -7541,782 +7577,813 @@
       <c r="A64" s="70"/>
       <c r="B64" s="70"/>
       <c r="C64" s="70"/>
-      <c r="D64" s="66" t="s">
+      <c r="D64" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E64" s="68">
+      <c r="E64" s="60">
         <v>63</v>
       </c>
-      <c r="F64" s="68" t="s">
+      <c r="F64" s="60" t="s">
         <v>478</v>
       </c>
-      <c r="G64" s="68" t="s">
+      <c r="G64" s="60" t="s">
         <v>479</v>
       </c>
-      <c r="H64" s="68" t="s">
+      <c r="H64" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="I64" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J64" s="68"/>
+      <c r="I64" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J64" s="60"/>
     </row>
     <row r="65" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="70"/>
       <c r="B65" s="70"/>
       <c r="C65" s="70"/>
-      <c r="D65" s="66" t="s">
+      <c r="D65" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E65" s="68">
+      <c r="E65" s="60">
         <v>64</v>
       </c>
-      <c r="F65" s="68" t="s">
+      <c r="F65" s="60" t="s">
         <v>480</v>
       </c>
-      <c r="G65" s="68" t="s">
+      <c r="G65" s="60" t="s">
         <v>481</v>
       </c>
-      <c r="H65" s="68" t="s">
+      <c r="H65" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="I65" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J65" s="68"/>
+      <c r="I65" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J65" s="60"/>
     </row>
     <row r="66" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="67" t="s">
+      <c r="A66" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="B66" s="67" t="s">
+      <c r="B66" s="69" t="s">
         <v>482</v>
       </c>
-      <c r="C66" s="67"/>
-      <c r="D66" s="66" t="s">
+      <c r="C66" s="69"/>
+      <c r="D66" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E66" s="68">
+      <c r="E66" s="60">
         <v>65</v>
       </c>
-      <c r="F66" s="68" t="s">
+      <c r="F66" s="60" t="s">
         <v>483</v>
       </c>
-      <c r="G66" s="68" t="s">
+      <c r="G66" s="60" t="s">
         <v>484</v>
       </c>
-      <c r="H66" s="68" t="s">
+      <c r="H66" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I66" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J66" s="68"/>
+      <c r="I66" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J66" s="60"/>
     </row>
     <row r="67" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="70"/>
       <c r="B67" s="70"/>
       <c r="C67" s="70"/>
-      <c r="D67" s="66" t="s">
+      <c r="D67" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E67" s="68">
+      <c r="E67" s="60">
         <v>66</v>
       </c>
-      <c r="F67" s="68" t="s">
+      <c r="F67" s="60" t="s">
         <v>485</v>
       </c>
-      <c r="G67" s="68" t="s">
+      <c r="G67" s="60" t="s">
         <v>486</v>
       </c>
-      <c r="H67" s="68" t="s">
+      <c r="H67" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I67" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J67" s="68"/>
+      <c r="I67" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J67" s="60"/>
     </row>
     <row r="68" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="70"/>
       <c r="B68" s="70"/>
       <c r="C68" s="70"/>
-      <c r="D68" s="66" t="s">
+      <c r="D68" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E68" s="68">
+      <c r="E68" s="60">
         <v>67</v>
       </c>
-      <c r="F68" s="68" t="s">
+      <c r="F68" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="G68" s="68" t="s">
+      <c r="G68" s="60" t="s">
         <v>487</v>
       </c>
-      <c r="H68" s="68" t="s">
+      <c r="H68" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="I68" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J68" s="68"/>
+      <c r="I68" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J68" s="60"/>
     </row>
     <row r="69" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="70"/>
       <c r="B69" s="70"/>
       <c r="C69" s="70"/>
-      <c r="D69" s="66" t="s">
+      <c r="D69" s="59" t="s">
         <v>488</v>
       </c>
-      <c r="E69" s="68" t="s">
+      <c r="E69" s="60" t="s">
         <v>489</v>
       </c>
-      <c r="F69" s="68" t="s">
+      <c r="F69" s="60" t="s">
         <v>490</v>
       </c>
-      <c r="G69" s="68" t="s">
+      <c r="G69" s="60" t="s">
         <v>491</v>
       </c>
-      <c r="H69" s="68" t="s">
+      <c r="H69" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I69" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J69" s="68"/>
+      <c r="I69" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J69" s="60"/>
     </row>
     <row r="70" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="69" t="s">
         <v>304</v>
       </c>
-      <c r="B70" s="67" t="s">
+      <c r="B70" s="69" t="s">
         <v>492</v>
       </c>
-      <c r="C70" s="67"/>
-      <c r="D70" s="66" t="s">
+      <c r="C70" s="69"/>
+      <c r="D70" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E70" s="68">
+      <c r="E70" s="60">
         <v>69</v>
       </c>
-      <c r="F70" s="68" t="s">
+      <c r="F70" s="60" t="s">
         <v>493</v>
       </c>
-      <c r="G70" s="68" t="s">
+      <c r="G70" s="60" t="s">
         <v>494</v>
       </c>
-      <c r="H70" s="68" t="s">
+      <c r="H70" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I70" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J70" s="68"/>
+      <c r="I70" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J70" s="60"/>
     </row>
     <row r="71" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="70"/>
       <c r="B71" s="70"/>
       <c r="C71" s="70"/>
-      <c r="D71" s="66" t="s">
+      <c r="D71" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E71" s="68">
+      <c r="E71" s="60">
         <v>70</v>
       </c>
-      <c r="F71" s="68" t="s">
+      <c r="F71" s="60" t="s">
         <v>495</v>
       </c>
-      <c r="G71" s="68" t="s">
+      <c r="G71" s="60" t="s">
         <v>496</v>
       </c>
-      <c r="H71" s="68" t="s">
+      <c r="H71" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="I71" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J71" s="68"/>
+      <c r="I71" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J71" s="60"/>
     </row>
     <row r="72" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="70"/>
       <c r="B72" s="70"/>
       <c r="C72" s="70"/>
-      <c r="D72" s="66" t="s">
+      <c r="D72" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E72" s="68">
+      <c r="E72" s="60">
         <v>71</v>
       </c>
-      <c r="F72" s="68" t="s">
+      <c r="F72" s="60" t="s">
         <v>497</v>
       </c>
-      <c r="G72" s="68" t="s">
+      <c r="G72" s="60" t="s">
         <v>498</v>
       </c>
-      <c r="H72" s="68" t="s">
+      <c r="H72" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I72" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J72" s="68"/>
+      <c r="I72" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J72" s="60"/>
     </row>
     <row r="73" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="70"/>
       <c r="B73" s="70"/>
       <c r="C73" s="70"/>
-      <c r="D73" s="66" t="s">
+      <c r="D73" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E73" s="68">
+      <c r="E73" s="60">
         <v>72</v>
       </c>
-      <c r="F73" s="68" t="s">
+      <c r="F73" s="60" t="s">
         <v>499</v>
       </c>
-      <c r="G73" s="68" t="s">
+      <c r="G73" s="60" t="s">
         <v>500</v>
       </c>
-      <c r="H73" s="68" t="s">
+      <c r="H73" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I73" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J73" s="68"/>
+      <c r="I73" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J73" s="60"/>
     </row>
     <row r="74" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="66" t="s">
+      <c r="A74" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="B74" s="66" t="s">
+      <c r="B74" s="59" t="s">
         <v>501</v>
       </c>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66" t="s">
+      <c r="C74" s="59"/>
+      <c r="D74" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E74" s="68">
+      <c r="E74" s="60">
         <v>73</v>
       </c>
-      <c r="F74" s="68" t="s">
+      <c r="F74" s="60" t="s">
         <v>502</v>
       </c>
-      <c r="G74" s="68" t="s">
+      <c r="G74" s="60" t="s">
         <v>503</v>
       </c>
-      <c r="H74" s="68" t="s">
+      <c r="H74" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="I74" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J74" s="68"/>
+      <c r="I74" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J74" s="60"/>
     </row>
     <row r="75" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="67" t="s">
+      <c r="A75" s="69" t="s">
         <v>320</v>
       </c>
-      <c r="B75" s="67" t="s">
+      <c r="B75" s="69" t="s">
         <v>504</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="66" t="s">
+      <c r="C75" s="69"/>
+      <c r="D75" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="68">
+      <c r="E75" s="60">
         <v>77</v>
       </c>
-      <c r="F75" s="68" t="s">
+      <c r="F75" s="60" t="s">
         <v>505</v>
       </c>
-      <c r="G75" s="68" t="s">
+      <c r="G75" s="60" t="s">
         <v>506</v>
       </c>
-      <c r="H75" s="68" t="s">
+      <c r="H75" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J75" s="68"/>
+      <c r="I75" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J75" s="60"/>
     </row>
     <row r="76" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="70"/>
       <c r="B76" s="70"/>
       <c r="C76" s="70"/>
-      <c r="D76" s="66" t="s">
+      <c r="D76" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E76" s="68">
+      <c r="E76" s="60">
         <v>78</v>
       </c>
-      <c r="F76" s="68" t="s">
+      <c r="F76" s="60" t="s">
         <v>507</v>
       </c>
-      <c r="G76" s="68" t="s">
+      <c r="G76" s="60" t="s">
         <v>508</v>
       </c>
-      <c r="H76" s="68" t="s">
+      <c r="H76" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="I76" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J76" s="68"/>
+      <c r="I76" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J76" s="60"/>
     </row>
     <row r="77" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="70"/>
       <c r="B77" s="70"/>
       <c r="C77" s="70"/>
-      <c r="D77" s="66" t="s">
+      <c r="D77" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E77" s="68">
+      <c r="E77" s="60">
         <v>79</v>
       </c>
-      <c r="F77" s="68" t="s">
+      <c r="F77" s="60" t="s">
         <v>509</v>
       </c>
-      <c r="G77" s="68" t="s">
+      <c r="G77" s="60" t="s">
         <v>510</v>
       </c>
-      <c r="H77" s="68" t="s">
+      <c r="H77" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="I77" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J77" s="68"/>
+      <c r="I77" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J77" s="60"/>
     </row>
     <row r="78" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="67" t="s">
+      <c r="A78" s="69" t="s">
         <v>328</v>
       </c>
-      <c r="B78" s="67" t="s">
+      <c r="B78" s="69" t="s">
         <v>511</v>
       </c>
-      <c r="C78" s="67"/>
-      <c r="D78" s="66" t="s">
+      <c r="C78" s="69"/>
+      <c r="D78" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E78" s="68">
+      <c r="E78" s="60">
         <v>81</v>
       </c>
-      <c r="F78" s="68" t="s">
+      <c r="F78" s="60" t="s">
         <v>512</v>
       </c>
-      <c r="G78" s="68" t="s">
+      <c r="G78" s="60" t="s">
         <v>513</v>
       </c>
-      <c r="H78" s="68" t="s">
+      <c r="H78" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I78" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J78" s="68"/>
+      <c r="I78" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J78" s="60"/>
     </row>
     <row r="79" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="70"/>
       <c r="B79" s="70"/>
       <c r="C79" s="70"/>
-      <c r="D79" s="66" t="s">
+      <c r="D79" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E79" s="68">
+      <c r="E79" s="60">
         <v>82</v>
       </c>
-      <c r="F79" s="68" t="s">
+      <c r="F79" s="60" t="s">
         <v>514</v>
       </c>
-      <c r="G79" s="68" t="s">
+      <c r="G79" s="60" t="s">
         <v>515</v>
       </c>
-      <c r="H79" s="68" t="s">
+      <c r="H79" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="I79" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J79" s="68"/>
+      <c r="I79" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J79" s="60"/>
     </row>
     <row r="80" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="67" t="s">
+      <c r="A80" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="B80" s="67" t="s">
+      <c r="B80" s="69" t="s">
         <v>516</v>
       </c>
-      <c r="C80" s="67"/>
-      <c r="D80" s="66" t="s">
+      <c r="C80" s="69"/>
+      <c r="D80" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="68">
+      <c r="E80" s="60">
         <v>85</v>
       </c>
-      <c r="F80" s="68" t="s">
+      <c r="F80" s="60" t="s">
         <v>517</v>
       </c>
-      <c r="G80" s="68" t="s">
+      <c r="G80" s="60" t="s">
         <v>518</v>
       </c>
-      <c r="H80" s="68" t="s">
+      <c r="H80" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="I80" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J80" s="68"/>
+      <c r="I80" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J80" s="60"/>
     </row>
     <row r="81" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="70"/>
       <c r="B81" s="70"/>
       <c r="C81" s="70"/>
-      <c r="D81" s="66" t="s">
+      <c r="D81" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E81" s="68">
+      <c r="E81" s="60">
         <v>86</v>
       </c>
-      <c r="F81" s="68" t="s">
+      <c r="F81" s="60" t="s">
         <v>519</v>
       </c>
-      <c r="G81" s="68" t="s">
+      <c r="G81" s="60" t="s">
         <v>520</v>
       </c>
-      <c r="H81" s="68" t="s">
+      <c r="H81" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="I81" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J81" s="68"/>
+      <c r="I81" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J81" s="60"/>
     </row>
     <row r="82" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="70"/>
       <c r="B82" s="70"/>
       <c r="C82" s="70"/>
-      <c r="D82" s="66" t="s">
+      <c r="D82" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E82" s="68">
+      <c r="E82" s="60">
         <v>87</v>
       </c>
-      <c r="F82" s="68" t="s">
+      <c r="F82" s="60" t="s">
         <v>521</v>
       </c>
-      <c r="G82" s="68" t="s">
+      <c r="G82" s="60" t="s">
         <v>522</v>
       </c>
-      <c r="H82" s="68" t="s">
+      <c r="H82" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I82" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J82" s="68"/>
+      <c r="I82" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J82" s="60"/>
     </row>
     <row r="83" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="66" t="s">
+      <c r="A83" s="59" t="s">
         <v>523</v>
       </c>
-      <c r="B83" s="66" t="s">
+      <c r="B83" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66" t="s">
+      <c r="C83" s="59"/>
+      <c r="D83" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E83" s="68">
+      <c r="E83" s="60">
         <v>89</v>
       </c>
-      <c r="F83" s="68" t="s">
+      <c r="F83" s="60" t="s">
         <v>525</v>
       </c>
-      <c r="G83" s="68" t="s">
+      <c r="G83" s="60" t="s">
         <v>526</v>
       </c>
-      <c r="H83" s="68" t="s">
+      <c r="H83" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="I83" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J83" s="68"/>
+      <c r="I83" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J83" s="60"/>
     </row>
     <row r="84" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="67" t="s">
+      <c r="A84" s="69" t="s">
         <v>348</v>
       </c>
-      <c r="B84" s="67" t="s">
+      <c r="B84" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="C84" s="67"/>
-      <c r="D84" s="66" t="s">
+      <c r="C84" s="69"/>
+      <c r="D84" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E84" s="68">
+      <c r="E84" s="60">
         <v>93</v>
       </c>
-      <c r="F84" s="68" t="s">
+      <c r="F84" s="60" t="s">
         <v>528</v>
       </c>
-      <c r="G84" s="68" t="s">
+      <c r="G84" s="60" t="s">
         <v>529</v>
       </c>
-      <c r="H84" s="68" t="s">
+      <c r="H84" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I84" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J84" s="68"/>
+      <c r="I84" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J84" s="60"/>
     </row>
     <row r="85" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="70"/>
       <c r="B85" s="70"/>
       <c r="C85" s="70"/>
-      <c r="D85" s="66" t="s">
+      <c r="D85" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E85" s="68">
+      <c r="E85" s="60">
         <v>95</v>
       </c>
-      <c r="F85" s="68" t="s">
+      <c r="F85" s="60" t="s">
         <v>530</v>
       </c>
-      <c r="G85" s="68" t="s">
+      <c r="G85" s="60" t="s">
         <v>531</v>
       </c>
-      <c r="H85" s="68" t="s">
+      <c r="H85" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="I85" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J85" s="68"/>
+      <c r="I85" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J85" s="60"/>
     </row>
     <row r="86" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="66" t="s">
+      <c r="A86" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="B86" s="66" t="s">
+      <c r="B86" s="59" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66" t="s">
+      <c r="C86" s="59"/>
+      <c r="D86" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E86" s="68">
+      <c r="E86" s="60">
         <v>97</v>
       </c>
-      <c r="F86" s="68" t="s">
+      <c r="F86" s="60" t="s">
         <v>533</v>
       </c>
-      <c r="G86" s="68" t="s">
+      <c r="G86" s="60" t="s">
         <v>534</v>
       </c>
-      <c r="H86" s="68" t="s">
+      <c r="H86" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="I86" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J86" s="68"/>
+      <c r="I86" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J86" s="60"/>
     </row>
     <row r="87" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="66" t="s">
+      <c r="A87" s="59" t="s">
         <v>362</v>
       </c>
-      <c r="B87" s="66" t="s">
+      <c r="B87" s="59" t="s">
         <v>535</v>
       </c>
-      <c r="C87" s="66"/>
-      <c r="D87" s="66" t="s">
+      <c r="C87" s="59"/>
+      <c r="D87" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E87" s="68">
+      <c r="E87" s="60">
         <v>101</v>
       </c>
-      <c r="F87" s="68" t="s">
+      <c r="F87" s="60" t="s">
         <v>536</v>
       </c>
-      <c r="G87" s="68" t="s">
+      <c r="G87" s="60" t="s">
         <v>537</v>
       </c>
-      <c r="H87" s="68" t="s">
+      <c r="H87" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="I87" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J87" s="68"/>
+      <c r="I87" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J87" s="60"/>
     </row>
     <row r="88" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="67" t="s">
+      <c r="A88" s="69" t="s">
         <v>366</v>
       </c>
-      <c r="B88" s="67" t="s">
+      <c r="B88" s="69" t="s">
         <v>538</v>
       </c>
-      <c r="C88" s="67"/>
-      <c r="D88" s="66" t="s">
+      <c r="C88" s="69"/>
+      <c r="D88" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E88" s="68">
+      <c r="E88" s="60">
         <v>105</v>
       </c>
-      <c r="F88" s="68" t="s">
+      <c r="F88" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="G88" s="68" t="s">
+      <c r="G88" s="60" t="s">
         <v>540</v>
       </c>
-      <c r="H88" s="68" t="s">
+      <c r="H88" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="I88" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J88" s="68"/>
+      <c r="I88" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J88" s="60"/>
     </row>
     <row r="89" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="70"/>
       <c r="B89" s="70"/>
       <c r="C89" s="70"/>
-      <c r="D89" s="66" t="s">
+      <c r="D89" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E89" s="68">
+      <c r="E89" s="60">
         <v>106</v>
       </c>
-      <c r="F89" s="68" t="s">
+      <c r="F89" s="60" t="s">
         <v>541</v>
       </c>
-      <c r="G89" s="68" t="s">
+      <c r="G89" s="60" t="s">
         <v>542</v>
       </c>
-      <c r="H89" s="68" t="s">
+      <c r="H89" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="I89" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J89" s="68"/>
+      <c r="I89" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J89" s="60"/>
     </row>
     <row r="90" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="67" t="s">
+      <c r="A90" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="B90" s="67" t="s">
+      <c r="B90" s="69" t="s">
         <v>543</v>
       </c>
-      <c r="C90" s="67"/>
-      <c r="D90" s="66" t="s">
+      <c r="C90" s="69"/>
+      <c r="D90" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E90" s="68">
+      <c r="E90" s="60">
         <v>109</v>
       </c>
-      <c r="F90" s="68" t="s">
+      <c r="F90" s="60" t="s">
         <v>544</v>
       </c>
-      <c r="G90" s="68" t="s">
+      <c r="G90" s="60" t="s">
         <v>545</v>
       </c>
-      <c r="H90" s="68" t="s">
+      <c r="H90" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="I90" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J90" s="68"/>
+      <c r="I90" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J90" s="60"/>
     </row>
     <row r="91" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="70"/>
       <c r="B91" s="70"/>
       <c r="C91" s="70"/>
-      <c r="D91" s="66" t="s">
+      <c r="D91" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E91" s="68">
+      <c r="E91" s="60">
         <v>110</v>
       </c>
-      <c r="F91" s="68" t="s">
+      <c r="F91" s="60" t="s">
         <v>546</v>
       </c>
-      <c r="G91" s="68" t="s">
+      <c r="G91" s="60" t="s">
         <v>547</v>
       </c>
-      <c r="H91" s="68" t="s">
+      <c r="H91" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="I91" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J91" s="68"/>
+      <c r="I91" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J91" s="60"/>
     </row>
     <row r="92" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="70"/>
       <c r="B92" s="70"/>
       <c r="C92" s="70"/>
-      <c r="D92" s="66" t="s">
+      <c r="D92" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E92" s="68">
+      <c r="E92" s="60">
         <v>111</v>
       </c>
-      <c r="F92" s="68" t="s">
+      <c r="F92" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="G92" s="68" t="s">
+      <c r="G92" s="60" t="s">
         <v>549</v>
       </c>
-      <c r="H92" s="68" t="s">
+      <c r="H92" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="I92" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J92" s="68"/>
+      <c r="I92" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J92" s="60"/>
     </row>
     <row r="93" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="66" t="s">
+      <c r="A93" s="59" t="s">
         <v>550</v>
       </c>
-      <c r="B93" s="66" t="s">
+      <c r="B93" s="59" t="s">
         <v>551</v>
       </c>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66" t="s">
+      <c r="C93" s="59"/>
+      <c r="D93" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E93" s="68">
+      <c r="E93" s="60">
         <v>113</v>
       </c>
-      <c r="F93" s="68" t="s">
+      <c r="F93" s="60" t="s">
         <v>552</v>
       </c>
-      <c r="G93" s="68" t="s">
+      <c r="G93" s="60" t="s">
         <v>553</v>
       </c>
-      <c r="H93" s="68" t="s">
+      <c r="H93" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I93" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="J93" s="68"/>
+      <c r="I93" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J93" s="60"/>
     </row>
   </sheetData>
   <autoFilter ref="A25:J25" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="57">
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B82"/>
     <mergeCell ref="B84:B85"/>
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="B90:B92"/>
@@ -8333,43 +8400,17 @@
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="C70:C73"/>
     <mergeCell ref="C75:C77"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A22:N22"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C92"/>
   </mergeCells>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="offline">
+      <formula>NOT(ISERROR(SEARCH("offline",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="25" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8382,8 +8423,8 @@
   </sheetPr>
   <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D109" sqref="A85:XFD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8410,22 +8451,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
@@ -8459,10 +8500,10 @@
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -8946,22 +8987,22 @@
       <c r="N19" s="37"/>
     </row>
     <row r="22" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9000,13 +9041,13 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="62" t="s">
         <v>555</v>
       </c>
-      <c r="C26" s="64"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="58" t="s">
         <v>130</v>
       </c>
@@ -9028,9 +9069,9 @@
       <c r="J26"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="58" t="s">
         <v>135</v>
       </c>
@@ -9052,9 +9093,9 @@
       <c r="J27" s="56"/>
     </row>
     <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="58" t="s">
         <v>138</v>
       </c>
@@ -9076,9 +9117,9 @@
       <c r="J28"/>
     </row>
     <row r="29" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="58" t="s">
         <v>141</v>
       </c>
@@ -9100,9 +9141,9 @@
       <c r="J29"/>
     </row>
     <row r="30" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="58" t="s">
         <v>563</v>
       </c>
@@ -9124,13 +9165,13 @@
       <c r="J30"/>
     </row>
     <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="62" t="s">
         <v>567</v>
       </c>
-      <c r="C31" s="64"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="58" t="s">
         <v>130</v>
       </c>
@@ -9152,9 +9193,9 @@
       <c r="J31"/>
     </row>
     <row r="32" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="58" t="s">
         <v>135</v>
       </c>
@@ -9176,9 +9217,9 @@
       <c r="J32"/>
     </row>
     <row r="33" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="58" t="s">
         <v>138</v>
       </c>
@@ -9200,13 +9241,13 @@
       <c r="J33"/>
     </row>
     <row r="34" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="62" t="s">
         <v>574</v>
       </c>
-      <c r="C34" s="64"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="58" t="s">
         <v>130</v>
       </c>
@@ -9228,9 +9269,9 @@
       <c r="J34"/>
     </row>
     <row r="35" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="58" t="s">
         <v>135</v>
       </c>
@@ -9252,9 +9293,9 @@
       <c r="J35"/>
     </row>
     <row r="36" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="58" t="s">
         <v>170</v>
       </c>
@@ -9276,9 +9317,9 @@
       <c r="J36"/>
     </row>
     <row r="37" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="58" t="s">
         <v>138</v>
       </c>
@@ -9300,9 +9341,9 @@
       <c r="J37"/>
     </row>
     <row r="38" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="58" t="s">
         <v>141</v>
       </c>
@@ -9324,13 +9365,13 @@
       <c r="J38"/>
     </row>
     <row r="39" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="62" t="s">
         <v>585</v>
       </c>
-      <c r="C39" s="64"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="58" t="s">
         <v>130</v>
       </c>
@@ -9352,9 +9393,9 @@
       <c r="J39"/>
     </row>
     <row r="40" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="58" t="s">
         <v>135</v>
       </c>
@@ -9376,9 +9417,9 @@
       <c r="J40"/>
     </row>
     <row r="41" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="58" t="s">
         <v>170</v>
       </c>
@@ -9400,9 +9441,9 @@
       <c r="J41"/>
     </row>
     <row r="42" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="58" t="s">
         <v>141</v>
       </c>
@@ -9424,13 +9465,13 @@
       <c r="J42"/>
     </row>
     <row r="43" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="64" t="s">
+      <c r="A43" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="62" t="s">
         <v>594</v>
       </c>
-      <c r="C43" s="64"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="58" t="s">
         <v>130</v>
       </c>
@@ -9452,9 +9493,9 @@
       <c r="J43"/>
     </row>
     <row r="44" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="58" t="s">
         <v>135</v>
       </c>
@@ -9476,9 +9517,9 @@
       <c r="J44"/>
     </row>
     <row r="45" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="58" t="s">
         <v>170</v>
       </c>
@@ -9500,9 +9541,9 @@
       <c r="J45"/>
     </row>
     <row r="46" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="58" t="s">
         <v>138</v>
       </c>
@@ -9524,9 +9565,9 @@
       <c r="J46"/>
     </row>
     <row r="47" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="58" t="s">
         <v>488</v>
       </c>
@@ -9548,13 +9589,13 @@
       <c r="J47"/>
     </row>
     <row r="48" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="62" t="s">
         <v>605</v>
       </c>
-      <c r="C48" s="64"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="58" t="s">
         <v>130</v>
       </c>
@@ -9576,9 +9617,9 @@
       <c r="J48"/>
     </row>
     <row r="49" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="58" t="s">
         <v>138</v>
       </c>
@@ -9600,9 +9641,9 @@
       <c r="J49"/>
     </row>
     <row r="50" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="58" t="s">
         <v>141</v>
       </c>
@@ -9624,13 +9665,13 @@
       <c r="J50"/>
     </row>
     <row r="51" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="62" t="s">
         <v>612</v>
       </c>
-      <c r="C51" s="64"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="58" t="s">
         <v>130</v>
       </c>
@@ -9652,9 +9693,9 @@
       <c r="J51"/>
     </row>
     <row r="52" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="58" t="s">
         <v>135</v>
       </c>
@@ -9676,9 +9717,9 @@
       <c r="J52"/>
     </row>
     <row r="53" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="58" t="s">
         <v>170</v>
       </c>
@@ -9700,9 +9741,9 @@
       <c r="J53"/>
     </row>
     <row r="54" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="58" t="s">
         <v>138</v>
       </c>
@@ -9724,9 +9765,9 @@
       <c r="J54"/>
     </row>
     <row r="55" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="58" t="s">
         <v>141</v>
       </c>
@@ -9748,13 +9789,13 @@
       <c r="J55"/>
     </row>
     <row r="56" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="62" t="s">
         <v>623</v>
       </c>
-      <c r="C56" s="64"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="58" t="s">
         <v>130</v>
       </c>
@@ -9776,9 +9817,9 @@
       <c r="J56"/>
     </row>
     <row r="57" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="65"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="58" t="s">
         <v>135</v>
       </c>
@@ -9800,9 +9841,9 @@
       <c r="J57"/>
     </row>
     <row r="58" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="65"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="58" t="s">
         <v>170</v>
       </c>
@@ -9824,13 +9865,13 @@
       <c r="J58"/>
     </row>
     <row r="59" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="B59" s="64" t="s">
+      <c r="B59" s="62" t="s">
         <v>630</v>
       </c>
-      <c r="C59" s="64"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="58" t="s">
         <v>130</v>
       </c>
@@ -9854,9 +9895,9 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="65"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="58" t="s">
         <v>135</v>
       </c>
@@ -9880,9 +9921,9 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="58" t="s">
         <v>138</v>
       </c>
@@ -9906,9 +9947,9 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="65"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
       <c r="D62" s="58" t="s">
         <v>141</v>
       </c>
@@ -9932,13 +9973,13 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="B63" s="64" t="s">
+      <c r="B63" s="62" t="s">
         <v>640</v>
       </c>
-      <c r="C63" s="64"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="58" t="s">
         <v>130</v>
       </c>
@@ -9962,9 +10003,9 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="65"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
       <c r="D64" s="58" t="s">
         <v>135</v>
       </c>
@@ -9988,9 +10029,9 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="65"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="58" t="s">
         <v>138</v>
       </c>
@@ -10012,9 +10053,9 @@
       <c r="J65"/>
     </row>
     <row r="66" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="65"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="58" t="s">
         <v>141</v>
       </c>
@@ -10036,13 +10077,13 @@
       <c r="J66"/>
     </row>
     <row r="67" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="64" t="s">
+      <c r="A67" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="B67" s="64" t="s">
+      <c r="B67" s="62" t="s">
         <v>649</v>
       </c>
-      <c r="C67" s="64"/>
+      <c r="C67" s="62"/>
       <c r="D67" s="58" t="s">
         <v>130</v>
       </c>
@@ -10064,9 +10105,9 @@
       <c r="J67"/>
     </row>
     <row r="68" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
       <c r="D68" s="58" t="s">
         <v>135</v>
       </c>
@@ -10088,9 +10129,9 @@
       <c r="J68"/>
     </row>
     <row r="69" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="65"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
       <c r="D69" s="58" t="s">
         <v>138</v>
       </c>
@@ -10112,9 +10153,9 @@
       <c r="J69"/>
     </row>
     <row r="70" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="65"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63"/>
       <c r="D70" s="58" t="s">
         <v>141</v>
       </c>
@@ -10136,13 +10177,13 @@
       <c r="J70"/>
     </row>
     <row r="71" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="64" t="s">
+      <c r="A71" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="B71" s="64" t="s">
+      <c r="B71" s="62" t="s">
         <v>658</v>
       </c>
-      <c r="C71" s="64"/>
+      <c r="C71" s="62"/>
       <c r="D71" s="58" t="s">
         <v>130</v>
       </c>
@@ -10164,9 +10205,9 @@
       <c r="J71"/>
     </row>
     <row r="72" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
       <c r="D72" s="58" t="s">
         <v>135</v>
       </c>
@@ -10188,9 +10229,9 @@
       <c r="J72"/>
     </row>
     <row r="73" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="65"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="63"/>
       <c r="D73" s="58" t="s">
         <v>138</v>
       </c>
@@ -10212,9 +10253,9 @@
       <c r="J73"/>
     </row>
     <row r="74" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="65"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
+      <c r="A74" s="63"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="63"/>
       <c r="D74" s="58" t="s">
         <v>488</v>
       </c>
@@ -10236,9 +10277,9 @@
       <c r="J74"/>
     </row>
     <row r="75" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="65"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
+      <c r="A75" s="63"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
       <c r="D75" s="58" t="s">
         <v>141</v>
       </c>
@@ -10260,13 +10301,13 @@
       <c r="J75"/>
     </row>
     <row r="76" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="B76" s="64" t="s">
+      <c r="B76" s="62" t="s">
         <v>668</v>
       </c>
-      <c r="C76" s="64"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="58" t="s">
         <v>130</v>
       </c>
@@ -10288,9 +10329,9 @@
       <c r="J76"/>
     </row>
     <row r="77" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="65"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
+      <c r="A77" s="63"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
       <c r="D77" s="58" t="s">
         <v>135</v>
       </c>
@@ -10312,9 +10353,9 @@
       <c r="J77"/>
     </row>
     <row r="78" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
       <c r="D78" s="58" t="s">
         <v>138</v>
       </c>
@@ -10336,9 +10377,9 @@
       <c r="J78"/>
     </row>
     <row r="79" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="65"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
+      <c r="A79" s="63"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
       <c r="D79" s="58" t="s">
         <v>141</v>
       </c>
@@ -10388,13 +10429,13 @@
       <c r="J80"/>
     </row>
     <row r="81" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="64" t="s">
+      <c r="A81" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="B81" s="64" t="s">
+      <c r="B81" s="62" t="s">
         <v>680</v>
       </c>
-      <c r="C81" s="64"/>
+      <c r="C81" s="62"/>
       <c r="D81" s="58" t="s">
         <v>130</v>
       </c>
@@ -10416,9 +10457,9 @@
       <c r="J81"/>
     </row>
     <row r="82" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
       <c r="D82" s="58" t="s">
         <v>135</v>
       </c>
@@ -10440,9 +10481,9 @@
       <c r="J82"/>
     </row>
     <row r="83" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="65"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
       <c r="D83" s="58" t="s">
         <v>138</v>
       </c>
@@ -10464,13 +10505,13 @@
       <c r="J83"/>
     </row>
     <row r="84" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="64" t="s">
+      <c r="A84" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="B84" s="64" t="s">
+      <c r="B84" s="62" t="s">
         <v>687</v>
       </c>
-      <c r="C84" s="64"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="58" t="s">
         <v>130</v>
       </c>
@@ -10492,9 +10533,9 @@
       <c r="J84"/>
     </row>
     <row r="85" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="65"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
+      <c r="A85" s="63"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="63"/>
       <c r="D85" s="58" t="s">
         <v>424</v>
       </c>
@@ -10516,9 +10557,9 @@
       <c r="J85"/>
     </row>
     <row r="86" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="65"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
+      <c r="A86" s="63"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
       <c r="D86" s="58" t="s">
         <v>135</v>
       </c>
@@ -10540,13 +10581,13 @@
       <c r="J86"/>
     </row>
     <row r="87" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="64" t="s">
+      <c r="A87" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="B87" s="64" t="s">
+      <c r="B87" s="62" t="s">
         <v>694</v>
       </c>
-      <c r="C87" s="64"/>
+      <c r="C87" s="62"/>
       <c r="D87" s="58" t="s">
         <v>130</v>
       </c>
@@ -10568,9 +10609,9 @@
       <c r="J87"/>
     </row>
     <row r="88" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="65"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
+      <c r="A88" s="63"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
       <c r="D88" s="58" t="s">
         <v>135</v>
       </c>
@@ -10592,9 +10633,9 @@
       <c r="J88"/>
     </row>
     <row r="89" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="65"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="63"/>
       <c r="D89" s="58" t="s">
         <v>138</v>
       </c>
@@ -10644,13 +10685,13 @@
       <c r="J90"/>
     </row>
     <row r="91" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="64" t="s">
+      <c r="A91" s="62" t="s">
         <v>348</v>
       </c>
-      <c r="B91" s="64" t="s">
+      <c r="B91" s="62" t="s">
         <v>704</v>
       </c>
-      <c r="C91" s="64"/>
+      <c r="C91" s="62"/>
       <c r="D91" s="58" t="s">
         <v>130</v>
       </c>
@@ -10672,9 +10713,9 @@
       <c r="J91"/>
     </row>
     <row r="92" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="65"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
+      <c r="A92" s="63"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="63"/>
       <c r="D92" s="58" t="s">
         <v>135</v>
       </c>
@@ -10752,13 +10793,13 @@
       <c r="J94"/>
     </row>
     <row r="95" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="64" t="s">
+      <c r="A95" s="62" t="s">
         <v>366</v>
       </c>
-      <c r="B95" s="64" t="s">
+      <c r="B95" s="62" t="s">
         <v>715</v>
       </c>
-      <c r="C95" s="64"/>
+      <c r="C95" s="62"/>
       <c r="D95" s="58" t="s">
         <v>135</v>
       </c>
@@ -10780,9 +10821,9 @@
       <c r="J95"/>
     </row>
     <row r="96" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="65"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
+      <c r="A96" s="63"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="63"/>
       <c r="D96" s="58" t="s">
         <v>138</v>
       </c>
@@ -10804,13 +10845,13 @@
       <c r="J96"/>
     </row>
     <row r="97" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="64" t="s">
+      <c r="A97" s="62" t="s">
         <v>374</v>
       </c>
-      <c r="B97" s="64" t="s">
+      <c r="B97" s="62" t="s">
         <v>720</v>
       </c>
-      <c r="C97" s="64"/>
+      <c r="C97" s="62"/>
       <c r="D97" s="58" t="s">
         <v>130</v>
       </c>
@@ -10832,9 +10873,9 @@
       <c r="J97"/>
     </row>
     <row r="98" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="65"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
+      <c r="A98" s="63"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="63"/>
       <c r="D98" s="58" t="s">
         <v>135</v>
       </c>
@@ -10856,9 +10897,9 @@
       <c r="J98"/>
     </row>
     <row r="99" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="65"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
+      <c r="A99" s="63"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="63"/>
       <c r="D99" s="58" t="s">
         <v>138</v>
       </c>
@@ -10880,9 +10921,9 @@
       <c r="J99"/>
     </row>
     <row r="100" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="65"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
+      <c r="A100" s="63"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="63"/>
       <c r="D100" s="58" t="s">
         <v>488</v>
       </c>
@@ -10904,13 +10945,13 @@
       <c r="J100"/>
     </row>
     <row r="101" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="64" t="s">
+      <c r="A101" s="62" t="s">
         <v>550</v>
       </c>
-      <c r="B101" s="64" t="s">
+      <c r="B101" s="62" t="s">
         <v>729</v>
       </c>
-      <c r="C101" s="64"/>
+      <c r="C101" s="62"/>
       <c r="D101" s="58" t="s">
         <v>130</v>
       </c>
@@ -10932,9 +10973,9 @@
       <c r="J101"/>
     </row>
     <row r="102" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="65"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
+      <c r="A102" s="63"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="63"/>
       <c r="D102" s="58" t="s">
         <v>135</v>
       </c>
@@ -10956,9 +10997,9 @@
       <c r="J102"/>
     </row>
     <row r="103" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="65"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
+      <c r="A103" s="63"/>
+      <c r="B103" s="63"/>
+      <c r="C103" s="63"/>
       <c r="D103" s="58" t="s">
         <v>138</v>
       </c>
@@ -10980,13 +11021,13 @@
       <c r="J103"/>
     </row>
     <row r="104" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="64" t="s">
+      <c r="A104" s="62" t="s">
         <v>736</v>
       </c>
-      <c r="B104" s="64" t="s">
+      <c r="B104" s="62" t="s">
         <v>737</v>
       </c>
-      <c r="C104" s="64"/>
+      <c r="C104" s="62"/>
       <c r="D104" s="58" t="s">
         <v>130</v>
       </c>
@@ -11008,9 +11049,9 @@
       <c r="J104"/>
     </row>
     <row r="105" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="65"/>
-      <c r="B105" s="65"/>
-      <c r="C105" s="65"/>
+      <c r="A105" s="63"/>
+      <c r="B105" s="63"/>
+      <c r="C105" s="63"/>
       <c r="D105" s="58" t="s">
         <v>135</v>
       </c>
@@ -11032,9 +11073,9 @@
       <c r="J105"/>
     </row>
     <row r="106" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="65"/>
-      <c r="B106" s="65"/>
-      <c r="C106" s="65"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="63"/>
       <c r="D106" s="58" t="s">
         <v>138</v>
       </c>
@@ -11056,9 +11097,9 @@
       <c r="J106"/>
     </row>
     <row r="107" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="65"/>
-      <c r="B107" s="65"/>
-      <c r="C107" s="65"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="63"/>
+      <c r="C107" s="63"/>
       <c r="D107" s="58" t="s">
         <v>141</v>
       </c>
@@ -11080,13 +11121,13 @@
       <c r="J107"/>
     </row>
     <row r="108" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="64" t="s">
+      <c r="A108" s="62" t="s">
         <v>746</v>
       </c>
-      <c r="B108" s="64" t="s">
+      <c r="B108" s="62" t="s">
         <v>747</v>
       </c>
-      <c r="C108" s="64"/>
+      <c r="C108" s="62"/>
       <c r="D108" s="58" t="s">
         <v>130</v>
       </c>
@@ -11108,9 +11149,9 @@
       <c r="J108"/>
     </row>
     <row r="109" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="65"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
+      <c r="A109" s="63"/>
+      <c r="B109" s="63"/>
+      <c r="C109" s="63"/>
       <c r="D109" s="58" t="s">
         <v>135</v>
       </c>
@@ -11134,66 +11175,6 @@
   </sheetData>
   <autoFilter ref="A25:J25" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="69">
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A55"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A22:N22"/>
@@ -11203,7 +11184,72 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="C26:C30"/>
     <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="C108:C109"/>
   </mergeCells>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"offline"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="25" orientation="portrait"/>
 </worksheet>
